--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claytonpollard/Documents/Teaching/Exam Generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claytonpollard/Downloads/exam-generator-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD498C2D-D070-C64D-8708-03240A894E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273C5F1C-1DBA-9E48-BCC1-493AE1123BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19600" xr2:uid="{726C944F-20C5-CD4C-9193-2B1F189DF7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,18 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Topic</t>
   </si>
   <si>
-    <t>Marks</t>
-  </si>
-  <si>
     <t>topic1</t>
   </si>
   <si>
     <t>topic2</t>
+  </si>
+  <si>
+    <t>EasyMarks</t>
+  </si>
+  <si>
+    <t>MediumMarks</t>
+  </si>
+  <si>
+    <t>HardMarks</t>
+  </si>
+  <si>
+    <t>TotalMarks</t>
   </si>
 </sst>
 </file>
@@ -399,36 +408,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95A1614-2766-A947-9361-DD8688003F42}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>4</v>
+      <c r="E3">
+        <f>SUM(B3:D3)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
